--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1432924.698039563</v>
+        <v>-1380627.482501758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10507361.64460671</v>
+        <v>10502617.19575743</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>123.2299392315329</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>256.3810358425997</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>247.9171219406613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>32.39808401240278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>81.72553610839955</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.9248217542668</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,19 +902,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>11.49061782427743</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>159.5828560759984</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>236.4449694316135</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,7 +1114,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>267.7357237463023</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>56.41800393046368</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1424,13 +1424,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>249.6997815930496</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>79.865526014312</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>98.73120706589812</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314398</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633441</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225672</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.20092700998912</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.7218216744501</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884121</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2242,10 +2242,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>32.98066327132541</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>65.07405371603534</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>43.77283765622057</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>31.24391673888106</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432392</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934444</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432402</v>
+        <v>71.53763939432343</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934444</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3569,7 +3569,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245964</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742933144</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3983,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561369</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H44" t="n">
         <v>270.0031426724685</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925395</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267643</v>
       </c>
       <c r="W44" t="n">
         <v>384.5711897043296</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934426</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4192,16 +4192,16 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W46" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>486.3523684147282</v>
+        <v>1050.001581919986</v>
       </c>
       <c r="C2" t="n">
-        <v>486.3523684147282</v>
+        <v>621.419907657254</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>589.5505268721026</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>559.8161860708019</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,28 +4328,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1178.990384122081</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>1178.175333573518</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X2" t="n">
-        <v>759.0328701528292</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="Y2" t="n">
-        <v>508.6115348592319</v>
+        <v>1476.301152404893</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>454.6477016666967</v>
+        <v>807.2874622845029</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0859901499217</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D4" t="n">
-        <v>282.0859901499217</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1244.497835670078</v>
       </c>
       <c r="X4" t="n">
-        <v>454.6477016666967</v>
+        <v>999.1060810034901</v>
       </c>
       <c r="Y4" t="n">
-        <v>454.6477016666967</v>
+        <v>999.1060810034901</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.8743158913576</v>
+        <v>1669.184274567248</v>
       </c>
       <c r="C5" t="n">
-        <v>520.7722471151849</v>
+        <v>1635.082205791075</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>1603.212825005924</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>1169.438080164219</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>741.5706505734266</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.1728191966905</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.04266463990675</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1112.375769149668</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1738.870975579372</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1738.870975579372</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1738.870975579372</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1738.870975579372</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>2365.366182009075</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.68707868135</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2518.872028132787</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2099.729564712098</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>2095.483845052156</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583395</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949818</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415351</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684888</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846504</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083427</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750435</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937166</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.74307982342</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1027.74307982342</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1027.74307982342</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588819</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.1384727187784</v>
+        <v>1041.024086653603</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>868.4623751368284</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>702.5843823383511</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>532.8263785890883</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>356.1193245508446</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>190.5280495766722</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.2055604317366</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.9640150028722</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>830.1738967708333</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.657763951746</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1595.924845291882</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2015.594094517664</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488005</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057709</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057709</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2271.042639601534</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1992.60963885464</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1705.65413072507</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1705.65413072507</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>1460.262376058482</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9570914377655</v>
+        <v>1232.842705372591</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>855.2769502042993</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>450.4214956153326</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>179.9813706190676</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.2419976140245</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>376.2419976140245</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>376.2419976140245</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>376.2419976140245</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>376.2419976140245</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1778.379902257282</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1778.379902257282</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.470117431727</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>908.6953725900216</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>480.8279429992294</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43011162249329</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43011162249329</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963329</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>514.2680097025511</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1348.618301660729</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1598.067588850462</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1598.067588850462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>1598.067588850462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2575.857451689674</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3404.16732652307</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3950.666112481665</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481665</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.014238665502</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3646.94701153854</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3394.725009929399</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3032.108059863226</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3032.108059863226</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2612.965596442536</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2204.67947274219</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409261</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775684</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241216</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510753</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672369</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334208</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963329</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>105.0769954100909</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>429.6353203763032</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634102</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569394</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025884</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414684</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206892</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>980.3257783862323</v>
+        <v>849.8497331100115</v>
       </c>
       <c r="C13" t="n">
-        <v>807.7640668694572</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="D13" t="n">
-        <v>641.8860740709799</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E13" t="n">
-        <v>641.8860740709799</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F13" t="n">
-        <v>465.1790200327362</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G13" t="n">
-        <v>299.5877450585638</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>159.6855707489383</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963329</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143232</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854587</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534198</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.672932152433</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2536.431563450429</v>
+        <v>2597.774136893195</v>
       </c>
       <c r="T13" t="n">
-        <v>2290.552117028884</v>
+        <v>2351.89469047165</v>
       </c>
       <c r="U13" t="n">
-        <v>2012.11911628199</v>
+        <v>2073.461689724756</v>
       </c>
       <c r="V13" t="n">
-        <v>1725.16360815242</v>
+        <v>1786.506181595186</v>
       </c>
       <c r="W13" t="n">
-        <v>1453.137203738712</v>
+        <v>1514.479777181478</v>
       </c>
       <c r="X13" t="n">
-        <v>1207.745449072124</v>
+        <v>1269.08802251489</v>
       </c>
       <c r="Y13" t="n">
-        <v>980.3257783862323</v>
+        <v>1041.668351828999</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5312,16 +5312,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903944</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736194</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751421</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258793</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876355</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134632</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5443,43 +5443,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2683.3639582443</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.652494875569</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795273</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5540,25 +5540,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5683,40 +5683,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>617.7751448769883</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>904.7306530065579</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>738.8526602080806</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>628.6763311243571</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>451.9692770861134</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>286.378002111941</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>146.4758278023156</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.913654892426</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>133.8203521282352</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886289</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030278</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666412</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412736</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799774</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H34" t="n">
-        <v>174.521082083228</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886289</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030278</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806459</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7184,16 +7184,16 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
@@ -7339,13 +7339,13 @@
         <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
         <v>2658.547011361804</v>
@@ -7354,28 +7354,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>531.9487292598668</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1366.299021218045</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1366.299021218045</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
         <v>442.520979946312</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7591,16 +7591,16 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
         <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231237</v>
@@ -7612,7 +7612,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H44" t="n">
         <v>97.56670367581785</v>
@@ -7658,22 +7658,22 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7691,7 +7691,7 @@
         <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463118</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758661</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823617</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856853</v>
+        <v>925.3347848856827</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301958</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694963</v>
+        <v>1859.22416169496</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361803</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461495</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579743</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290616</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8000,7 +8000,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8055,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380843</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>167.6036175184468</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,16 +8295,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>28.49579817779818</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,13 +8380,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>309.3606882223592</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>251.968976959326</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204162</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10115,16 +10115,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>438.7697228121707</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>300.3588160633515</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>156.2861405226818</v>
+        <v>346.120532351183</v>
       </c>
     </row>
     <row r="3">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.93029806310372</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7.907823718759417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>58.91774794908518</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142725</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>122.4480280049942</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>135.0797604404447</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>44.00051207685084</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.34647848426539e-12</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>852288.3014413527</v>
+        <v>699682.9171768231</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>923714.7370043969</v>
+        <v>927991.7851819944</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>923714.7370043969</v>
+        <v>928703.3378274638</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>765350.7289016373</v>
+        <v>922535.6393929189</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922535.639392919</v>
+        <v>922535.6393929189</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922535.6393929194</v>
+        <v>922535.639392919</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922535.639392919</v>
+        <v>922535.6393929189</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938328.1901731146</v>
+        <v>937403.4926794283</v>
       </c>
     </row>
     <row r="14">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24706.58847796031</v>
+        <v>20218.1948231212</v>
       </c>
       <c r="C2" t="n">
-        <v>26807.36599452042</v>
+        <v>26807.36599452043</v>
       </c>
       <c r="D2" t="n">
         <v>26807.36599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>21854.48555202851</v>
+        <v>26342.87920686761</v>
       </c>
       <c r="F2" t="n">
         <v>26342.87920686762</v>
@@ -26329,7 +26329,7 @@
         <v>26342.87920686762</v>
       </c>
       <c r="H2" t="n">
-        <v>26342.87920686761</v>
+        <v>26342.87920686762</v>
       </c>
       <c r="I2" t="n">
         <v>26342.87920686762</v>
@@ -26344,16 +26344,16 @@
         <v>26807.36599452044</v>
       </c>
       <c r="M2" t="n">
+        <v>26807.36599452043</v>
+      </c>
+      <c r="N2" t="n">
+        <v>26807.36599452043</v>
+      </c>
+      <c r="O2" t="n">
+        <v>26807.36599452043</v>
+      </c>
+      <c r="P2" t="n">
         <v>26807.36599452044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>26807.36599452042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26807.36599452042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26807.36599452043</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246197</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106445</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880864999</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658718</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338185</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099791</v>
+        <v>21768.74196143544</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962801</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713877</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157451.293669534</v>
+        <v>106214.747262108</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>137985.3773911519</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>22967.16673664867</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="F4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020262</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26445,19 +26445,19 @@
         <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
-        <v>33026.43656683596</v>
+        <v>33026.43656683595</v>
       </c>
       <c r="M4" t="n">
-        <v>33026.43656683595</v>
+        <v>42419.67665353611</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353607</v>
+        <v>42419.67665353611</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353609</v>
+        <v>42419.67665353612</v>
       </c>
       <c r="P4" t="n">
-        <v>42419.67665353611</v>
+        <v>42419.67665353614</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295552</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.1249097213</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334360.793988506</v>
+        <v>-287942.099794489</v>
       </c>
       <c r="C6" t="n">
-        <v>-214049.808603164</v>
+        <v>-250650.425992049</v>
       </c>
       <c r="D6" t="n">
-        <v>-214049.808603164</v>
+        <v>-188938.7620003216</v>
       </c>
       <c r="E6" t="n">
-        <v>-229372.8941808413</v>
+        <v>-261437.7717095599</v>
       </c>
       <c r="F6" t="n">
-        <v>-162322.1675057148</v>
+        <v>-79082.66248851015</v>
       </c>
       <c r="G6" t="n">
-        <v>-79059.43814912757</v>
+        <v>-79082.66248851015</v>
       </c>
       <c r="H6" t="n">
-        <v>-79059.43814912759</v>
+        <v>-79082.66248851016</v>
       </c>
       <c r="I6" t="n">
-        <v>-79059.43814912759</v>
+        <v>-79082.66248851022</v>
       </c>
       <c r="J6" t="n">
-        <v>-190073.9034941178</v>
+        <v>-190097.1278335004</v>
       </c>
       <c r="K6" t="n">
-        <v>-79059.43814912759</v>
+        <v>-132750.9895518921</v>
       </c>
       <c r="L6" t="n">
-        <v>-98290.79738157411</v>
+        <v>-107070.9710720116</v>
       </c>
       <c r="M6" t="n">
-        <v>-225696.4537068563</v>
+        <v>-228705.6261229575</v>
       </c>
       <c r="N6" t="n">
-        <v>-147930.7260422441</v>
+        <v>-91127.92538510539</v>
       </c>
       <c r="O6" t="n">
-        <v>-91127.92538510538</v>
+        <v>-91127.92538510539</v>
       </c>
       <c r="P6" t="n">
-        <v>-91127.92538510539</v>
+        <v>-91127.92538510541</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380844</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204162</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179801</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977256</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003118</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643292</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179801</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977256</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003118</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273069</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179801</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977256</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003118</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643292</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>102.609744722912</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>58.08273011216011</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>138.4380103892045</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>86.33488760337056</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.1117530257919</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,19 +27622,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>347.5001627412343</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>6.975682525715797</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>147.2153150401801</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>186.519833189458</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-2.779647469158316e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874674</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874589</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874862</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34720,7 +34720,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380843</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,13 +34951,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>167.6036175184468</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>28.49579817779818</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35100,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>309.3606882223592</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>251.968976959326</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204162</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645618</v>
+        <v>464.1251183645575</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36051,10 +36051,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955994</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36835,16 +36835,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37306,13 +37306,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
@@ -37470,13 +37470,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033059</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900414</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
         <v>367.2527749552542</v>
@@ -37552,19 +37552,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033056</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>438.7697228121707</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778266</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467901</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O46" t="n">
         <v>440.1440428900419</v>
